--- a/document/short-term-simulation.xlsx
+++ b/document/short-term-simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s19529\OneDrive - salesio-sp.ac.jp\デスクトップ\DEV\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salesio\Desktop\DEV\Keras_StockPrice\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A899E1-53FC-443A-958F-F4A0E0AC8208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E6F22-C5EF-4714-B8F5-020FC003A9EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{65732D8F-C670-41DD-B71D-D3D9C205D8A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" xr2:uid="{65732D8F-C670-41DD-B71D-D3D9C205D8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,32 +622,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A89ED8-488F-4AFF-B856-00187DDF1D20}">
   <dimension ref="B1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
@@ -679,15 +679,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
@@ -695,7 +695,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3" s="6" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -703,13 +703,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:3" s="6" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="2:3" s="6" customFormat="1" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -733,7 +733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
@@ -741,7 +741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="10" t="s">
         <v>4</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
@@ -757,7 +757,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
